--- a/Analisis de Sorting Algorithms.xlsx
+++ b/Analisis de Sorting Algorithms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\Analisis de Algoritmos\tarea_3_analisis_de_algoritmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9C6574-6C9A-4D51-B6ED-97E57210DC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3508D8-3F3F-4860-9326-9E4CE6F8C478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12708" yWindow="7476" windowWidth="10332" windowHeight="4764" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
   <si>
     <t>Insertion Sort</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Quick Sort</t>
   </si>
   <si>
-    <t>Arreglo de tamaño pequeño (7 elementos)</t>
-  </si>
-  <si>
     <t>Test 1</t>
   </si>
   <si>
@@ -112,6 +109,15 @@
   </si>
   <si>
     <t>Arreglo de tamaño muy grande (10,000 elementos)</t>
+  </si>
+  <si>
+    <t>Arreglo de tamaño mediano (1000 elementos)</t>
+  </si>
+  <si>
+    <t>x10^-5</t>
+  </si>
+  <si>
+    <t>Arreglo de tamaño pequeño (10 elementos)</t>
   </si>
 </sst>
 </file>
@@ -161,21 +167,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -205,7 +220,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64BFF103-5955-4144-90BE-88097447C1E0}" name="Tabla3" displayName="Tabla3" ref="B3:H19" totalsRowShown="0">
   <autoFilter ref="B3:H19" xr:uid="{64BFF103-5955-4144-90BE-88097447C1E0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{03009FFA-3F0D-40F3-8B2E-440E70EF6D3E}" name="Tests" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{03009FFA-3F0D-40F3-8B2E-440E70EF6D3E}" name="Tests" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{B5E7BE10-1CE2-429E-B170-BC91BE617E72}" name="Insertion Sort"/>
     <tableColumn id="3" xr3:uid="{5FB51663-FE00-4A1C-85B7-B5493A7FCB6C}" name="Selection Sort"/>
     <tableColumn id="4" xr3:uid="{45B1D9CC-35EF-4451-8A7C-4FE8F763A5D2}" name="Bubble Sort"/>
@@ -218,16 +233,32 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1C964A59-78A8-4B4B-A01C-1EEA968C2657}" name="Tabla35" displayName="Tabla35" ref="B22:H38" totalsRowShown="0">
-  <autoFilter ref="B22:H38" xr:uid="{1C964A59-78A8-4B4B-A01C-1EEA968C2657}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1C964A59-78A8-4B4B-A01C-1EEA968C2657}" name="Tabla35" displayName="Tabla35" ref="B23:H39" totalsRowShown="0">
+  <autoFilter ref="B23:H39" xr:uid="{1C964A59-78A8-4B4B-A01C-1EEA968C2657}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2497E640-8C13-4C6D-9584-6CB82E7B294E}" name="Tests" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2497E640-8C13-4C6D-9584-6CB82E7B294E}" name="Tests" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{7DF08914-C061-4643-85ED-E5109E27909F}" name="Insertion Sort"/>
     <tableColumn id="3" xr3:uid="{D269807E-E229-4DF2-9819-64A3B281B7E0}" name="Selection Sort"/>
     <tableColumn id="4" xr3:uid="{1BBD3C22-E5F2-49D9-953A-EDFC44B7A266}" name="Bubble Sort"/>
     <tableColumn id="5" xr3:uid="{DB9D423F-F16F-4866-AB23-50D466CBF605}" name="Merge Sort"/>
     <tableColumn id="6" xr3:uid="{65CD15DD-06C0-4C88-A274-2C9D8D13F2B7}" name="Heap Sort"/>
     <tableColumn id="7" xr3:uid="{169798CE-BB2D-4A8D-BE41-CF3491A4C005}" name="Quick Sort"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B7A1AAC-722E-40B3-A9B9-FF44D999BF0D}" name="Tabla32" displayName="Tabla32" ref="J3:P19" totalsRowShown="0">
+  <autoFilter ref="J3:P19" xr:uid="{1B7A1AAC-722E-40B3-A9B9-FF44D999BF0D}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F046030E-76E8-4B27-97FF-C8D7C793DBD7}" name="Tests" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E600D2BD-56AF-4F80-A14C-6FB01BDAAD80}" name="Insertion Sort"/>
+    <tableColumn id="3" xr3:uid="{D35205ED-19E2-4693-BE17-3824BCE9F1AC}" name="Selection Sort"/>
+    <tableColumn id="4" xr3:uid="{B488C6C1-443C-4709-88FC-A50C6EDF6CAC}" name="Bubble Sort"/>
+    <tableColumn id="5" xr3:uid="{A4D50358-4D0A-4A67-9A7D-93788725DDD0}" name="Merge Sort"/>
+    <tableColumn id="6" xr3:uid="{E5FB862F-BB7C-4589-AF59-D1F5FE1D06A2}" name="Heap Sort"/>
+    <tableColumn id="7" xr3:uid="{DA5E83D3-A2AD-4B38-954E-9B513F36A629}" name="Quick Sort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -496,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H38"/>
+  <dimension ref="B2:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="88" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,17 +547,23 @@
     <col min="18" max="18" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -546,143 +583,256 @@
       <c r="H3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1.1000019999999999</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>3.3114299993030699E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>4.4806999503634801E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="C5">
+        <v>1.0700019999999999</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>3.3790000015869702E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
-        <v>3.1092999852262398E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="C6">
+        <v>0.8999952</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>3.2341599988285397E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
-        <v>3.94119997508823E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="C7">
+        <v>0.93999549999999998</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>3.9883799967355998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>3.0420999974012301E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="C8">
+        <v>1.0200009999999999</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>3.27010999899357E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
-        <v>3.5948999575339201E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="C9">
+        <v>0.89000089999999998</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9">
+        <v>3.2112799992319099E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9">
-        <v>3.7878000293858302E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="C10">
+        <v>1.0700019999999999</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10">
+        <v>3.3216499956324697E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10">
-        <v>2.9779999749734898E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3">
+        <v>1.0500020000000001</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="J11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="3">
+        <v>3.4716999973170397E-2</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4">
-        <v>5.5608000257052403E-3</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+      <c r="C12">
+        <v>1.84999</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12">
+        <v>3.34590999991633E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12">
-        <v>3.91500000841915E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+      <c r="C13">
+        <v>1.0400020000000001</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13">
+        <v>4.0326900023501297E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13">
-        <v>3.7252999609336201E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+      <c r="C14">
+        <v>0.91000099999999995</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14">
+        <v>3.3037300046999001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14">
-        <v>3.5183000145480002E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+      <c r="C15">
+        <v>1.06999</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15">
+        <v>3.2226499984972103E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15">
-        <v>2.9444000101648202E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="C16">
+        <v>0.99000100000000002</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <v>3.3075399987865198E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16">
-        <v>3.1428000074811202E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+      <c r="C17">
+        <v>1.0500020000000001</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17">
+        <v>3.4407400002237402E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17">
-        <v>3.9566999766975598E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C18">
-        <v>4.5340000069700103E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>0.93000099999999997</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>3.2712799962609999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C19">
         <f>AVERAGE(C4:C18)</f>
-        <v>3.7487533253927961E-3</v>
+        <v>1.05866584</v>
       </c>
       <c r="D19" t="e">
         <f>AVERAGE(D4:D18)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E19" t="e">
-        <f t="shared" ref="D19:H19" si="0">AVERAGE(E4:E18)</f>
+        <f t="shared" ref="E19:H19" si="0">AVERAGE(E4:E18)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F19" t="e">
@@ -697,200 +847,237 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+      <c r="J19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
+      <c r="K19">
+        <f>AVERAGE(K4:K18)</f>
+        <v>3.4074833325576002E-2</v>
+      </c>
+      <c r="L19" t="e">
+        <f>AVERAGE(L4:L18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" t="e">
+        <f t="shared" ref="M19" si="1">AVERAGE(M4:M18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" t="e">
+        <f>AVERAGE(N4:N18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" t="e">
+        <f t="shared" ref="O19:P19" si="2">AVERAGE(O4:O18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P19" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>1</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>2</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>3</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>4</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>3.5558737000101202</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C23">
-        <v>80.58</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
+      <c r="C25">
+        <v>3.5857949999626699</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C24">
-        <v>91.85</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
+      <c r="C26">
+        <v>3.6907640999997899</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25">
-        <v>82.38</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
+      <c r="C27">
+        <v>3.7333265999914098</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C26">
-        <v>81.12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
+      <c r="C28">
+        <v>3.6413443000055801</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C27">
-        <v>82.11</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
+      <c r="C29">
+        <v>3.6359979000408198</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C28">
-        <v>80.16</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
+      <c r="C30">
+        <v>3.6565957999555301</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C29">
-        <v>79.33</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
+      <c r="C31" s="3">
+        <v>3.5369630999630299</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="4">
-        <v>78.430000000000007</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
+      <c r="C32">
+        <v>3.5786460000090301</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C31">
-        <v>79.7</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
+      <c r="C33">
+        <v>3.5345999000128301</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C32">
-        <v>79.569999999999993</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
+      <c r="C34">
+        <v>3.5232586000347501</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C33">
-        <v>81.150000000000006</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="3" t="s">
+      <c r="C35">
+        <v>3.5870397999533399</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C34">
-        <v>81.62</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="3" t="s">
+      <c r="C36">
+        <v>3.5964906000299299</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C35">
-        <v>79.680000000000007</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
+      <c r="C37">
+        <v>3.5905539999948801</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C36">
-        <v>81.61</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37">
-        <v>81.34</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C38">
-        <f>AVERAGE(C23:C37)</f>
-        <v>81.37533333333333</v>
-      </c>
-      <c r="D38" t="e">
-        <f>AVERAGE(D23:D37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E38" t="e">
-        <f t="shared" ref="E38" si="1">AVERAGE(E23:E37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F38" t="e">
-        <f>AVERAGE(F23:F37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G38" t="e">
-        <f t="shared" ref="G38" si="2">AVERAGE(G23:G37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" t="e">
-        <f t="shared" ref="H38" si="3">AVERAGE(H23:H37)</f>
+        <v>3.5899874999886299</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39">
+        <f>AVERAGE(C24:C38)</f>
+        <v>3.6024824599968226</v>
+      </c>
+      <c r="D39" t="e">
+        <f>AVERAGE(D24:D38)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E39" t="e">
+        <f t="shared" ref="E39" si="3">AVERAGE(E24:E38)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F39" t="e">
+        <f>AVERAGE(F24:F38)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" t="e">
+        <f t="shared" ref="G39" si="4">AVERAGE(G24:G38)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" t="e">
+        <f t="shared" ref="H39" si="5">AVERAGE(H24:H38)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="J2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Analisis de Sorting Algorithms.xlsx
+++ b/Analisis de Sorting Algorithms.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\Analisis de Algoritmos\tarea_3_analisis_de_algoritmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3508D8-3F3F-4860-9326-9E4CE6F8C478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE29B1E-ECD7-44BD-AE23-AF4C7FE009F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12708" yWindow="7476" windowWidth="10332" windowHeight="4764" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
+    <sheet name="Graficos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
   <si>
     <t>Insertion Sort</t>
   </si>
@@ -124,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +143,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,19 +175,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -216,11 +227,2853 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Tiempo con arreglo pequeño (seg)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>Insertion</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Selection</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Bubble</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v> Merge</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v> Heap</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v> Quick</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tests!$C$19:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.05866584</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2359997102369831</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1400007338666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5053334666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4313333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4733332985391161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7209-4C6C-8A5D-7B02E20F063B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1771579967"/>
+        <c:axId val="1771577887"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1771579967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1771577887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1771577887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1771579967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Tiempo con arreglo mediano (seg)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>Insertion</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Selection</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Bubble</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v> Merge</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v> Heap</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v> Quick</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tests!$K$19:$P$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.2495086660298162E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8658006663899819E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6378339988489927E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0234933355823123E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9342599911615199E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1681466673811225E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-206C-4642-BD74-2E2F557CAEC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1710821903"/>
+        <c:axId val="1710823151"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1710821903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1710823151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1710823151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1710821903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Tiempo con arreglo grande (seg)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>Insertion</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Selection</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Bubble</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v> Merge</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v> Heap</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v> Quick</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tests!$C$39:$H$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.6024824599968226</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.63214692666463</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5899294533301109</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5799006662176254E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4546786668555133E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7851859994698276E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4877-475F-965E-9AE5331F451B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1596858351"/>
+        <c:axId val="1596862095"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1596858351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1596862095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1596862095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1596858351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>595222</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>82156</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B347560E-AA37-4B75-8D56-6BBD740970A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>754380</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E23A2BDD-A730-4DAB-A1BA-3D0A9A5A75CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="754380" y="365760"/>
+          <a:ext cx="723900" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>x10^-5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50799</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>8466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>643466</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>143933</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D285379-FE19-4109-A06A-1AA937DC1C3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>627640</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>112152</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FCE82DB-3E08-457C-B3EF-C331D0DA08B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64BFF103-5955-4144-90BE-88097447C1E0}" name="Tabla3" displayName="Tabla3" ref="B3:H19" totalsRowShown="0">
   <autoFilter ref="B3:H19" xr:uid="{64BFF103-5955-4144-90BE-88097447C1E0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{03009FFA-3F0D-40F3-8B2E-440E70EF6D3E}" name="Tests" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{03009FFA-3F0D-40F3-8B2E-440E70EF6D3E}" name="Tests" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{B5E7BE10-1CE2-429E-B170-BC91BE617E72}" name="Insertion Sort"/>
     <tableColumn id="3" xr3:uid="{5FB51663-FE00-4A1C-85B7-B5493A7FCB6C}" name="Selection Sort"/>
     <tableColumn id="4" xr3:uid="{45B1D9CC-35EF-4451-8A7C-4FE8F763A5D2}" name="Bubble Sort"/>
@@ -236,7 +3089,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1C964A59-78A8-4B4B-A01C-1EEA968C2657}" name="Tabla35" displayName="Tabla35" ref="B23:H39" totalsRowShown="0">
   <autoFilter ref="B23:H39" xr:uid="{1C964A59-78A8-4B4B-A01C-1EEA968C2657}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2497E640-8C13-4C6D-9584-6CB82E7B294E}" name="Tests" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{2497E640-8C13-4C6D-9584-6CB82E7B294E}" name="Tests" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{7DF08914-C061-4643-85ED-E5109E27909F}" name="Insertion Sort"/>
     <tableColumn id="3" xr3:uid="{D269807E-E229-4DF2-9819-64A3B281B7E0}" name="Selection Sort"/>
     <tableColumn id="4" xr3:uid="{1BBD3C22-E5F2-49D9-953A-EDFC44B7A266}" name="Bubble Sort"/>
@@ -252,7 +3105,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B7A1AAC-722E-40B3-A9B9-FF44D999BF0D}" name="Tabla32" displayName="Tabla32" ref="J3:P19" totalsRowShown="0">
   <autoFilter ref="J3:P19" xr:uid="{1B7A1AAC-722E-40B3-A9B9-FF44D999BF0D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F046030E-76E8-4B27-97FF-C8D7C793DBD7}" name="Tests" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F046030E-76E8-4B27-97FF-C8D7C793DBD7}" name="Tests" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{E600D2BD-56AF-4F80-A14C-6FB01BDAAD80}" name="Insertion Sort"/>
     <tableColumn id="3" xr3:uid="{D35205ED-19E2-4693-BE17-3824BCE9F1AC}" name="Selection Sort"/>
     <tableColumn id="4" xr3:uid="{B488C6C1-443C-4709-88FC-A50C6EDF6CAC}" name="Bubble Sort"/>
@@ -529,8 +3382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="76" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,7 +3395,9 @@
     <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
     <col min="12" max="17" width="13.44140625" customWidth="1"/>
     <col min="18" max="18" width="22.44140625" customWidth="1"/>
   </cols>
@@ -606,282 +3461,745 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4">
         <v>1.1000019999999999</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="D4">
+        <v>1.45999947562813</v>
+      </c>
+      <c r="E4">
+        <v>1.289998</v>
+      </c>
+      <c r="F4">
+        <v>1.9999979999999999</v>
+      </c>
+      <c r="G4">
+        <v>1.8899969999999999</v>
+      </c>
+      <c r="H4">
+        <v>1.8600025214254801</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K4">
-        <v>3.3114299993030699E-2</v>
+        <v>5.3109999978914801E-2</v>
+      </c>
+      <c r="L4">
+        <v>3.8344300002790897E-2</v>
+      </c>
+      <c r="M4">
+        <v>7.5970300007611499E-2</v>
+      </c>
+      <c r="N4">
+        <v>2.6234000106342102E-3</v>
+      </c>
+      <c r="O4">
+        <v>2.3688999935984599E-3</v>
+      </c>
+      <c r="P4">
+        <v>1.11870002001523E-3</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5">
         <v>1.0700019999999999</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="D5">
+        <v>0.79000019468367</v>
+      </c>
+      <c r="E5">
+        <v>0.96000099999999999</v>
+      </c>
+      <c r="F5">
+        <v>1.350004</v>
+      </c>
+      <c r="G5">
+        <v>1.2099979999999999</v>
+      </c>
+      <c r="H5">
+        <v>1.7700018361210801</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K5">
-        <v>3.3790000015869702E-2</v>
+        <v>6.2772099976427798E-2</v>
+      </c>
+      <c r="L5">
+        <v>3.9196599973365602E-2</v>
+      </c>
+      <c r="M5">
+        <v>8.2460499950684593E-2</v>
+      </c>
+      <c r="N5">
+        <v>1.4761000056751001E-3</v>
+      </c>
+      <c r="O5">
+        <v>2.93630000669509E-3</v>
+      </c>
+      <c r="P5">
+        <v>1.0160999954678101E-3</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6">
         <v>0.8999952</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="D6">
+        <v>1.27000384964048</v>
+      </c>
+      <c r="E6">
+        <v>0.89000100000000004</v>
+      </c>
+      <c r="F6">
+        <v>1.8199959999999999</v>
+      </c>
+      <c r="G6">
+        <v>1.2499979999999999</v>
+      </c>
+      <c r="H6">
+        <v>1.1600030120462099</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K6">
-        <v>3.2341599988285397E-2</v>
+        <v>7.2810999990906497E-2</v>
+      </c>
+      <c r="L6">
+        <v>5.8757499966304701E-2</v>
+      </c>
+      <c r="M6">
+        <v>8.2579099980648593E-2</v>
+      </c>
+      <c r="N6">
+        <v>1.51510001160204E-3</v>
+      </c>
+      <c r="O6">
+        <v>2.81219999305903E-3</v>
+      </c>
+      <c r="P6">
+        <v>1.0275999666191601E-3</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7">
         <v>0.93999549999999998</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="D7">
+        <v>1.51999993249773</v>
+      </c>
+      <c r="E7">
+        <v>0.94000099999999998</v>
+      </c>
+      <c r="F7">
+        <v>1.7100010000000001</v>
+      </c>
+      <c r="G7">
+        <v>1.7200009999999999</v>
+      </c>
+      <c r="H7">
+        <v>1.8199963960796499</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K7">
-        <v>3.9883799967355998E-2</v>
+        <v>6.1605299997609102E-2</v>
+      </c>
+      <c r="L7">
+        <v>3.95247999695129E-2</v>
+      </c>
+      <c r="M7">
+        <v>8.4208599990233696E-2</v>
+      </c>
+      <c r="N7">
+        <v>1.98379997164011E-3</v>
+      </c>
+      <c r="O7">
+        <v>3.5667999763973001E-3</v>
+      </c>
+      <c r="P7">
+        <v>1.19979999726638E-3</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8">
         <v>1.0200009999999999</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="D8">
+        <v>2.0000035874545499</v>
+      </c>
+      <c r="E8">
+        <v>1.530000008</v>
+      </c>
+      <c r="F8">
+        <v>1.409999</v>
+      </c>
+      <c r="G8">
+        <v>1.2100029999999999</v>
+      </c>
+      <c r="H8">
+        <v>1.51999993249773</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K8">
-        <v>3.27010999899357E-2</v>
+        <v>6.1967799963895197E-2</v>
+      </c>
+      <c r="L8">
+        <v>3.39647000073455E-2</v>
+      </c>
+      <c r="M8">
+        <v>9.2638499976601396E-2</v>
+      </c>
+      <c r="N8">
+        <v>1.9999999785795799E-3</v>
+      </c>
+      <c r="O8">
+        <v>2.5294999941252098E-3</v>
+      </c>
+      <c r="P8">
+        <v>1.1250000097788801E-3</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9">
         <v>0.89000089999999998</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="D9">
+        <v>0.80000027082860403</v>
+      </c>
+      <c r="E9">
+        <v>1.2900039999999999</v>
+      </c>
+      <c r="F9">
+        <v>1.3499989999999999</v>
+      </c>
+      <c r="G9">
+        <v>1.2099979999999999</v>
+      </c>
+      <c r="H9">
+        <v>1.3899989426135999</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K9">
-        <v>3.2112799992319099E-2</v>
+        <v>6.59755999804474E-2</v>
+      </c>
+      <c r="L9">
+        <v>3.4285400004591703E-2</v>
+      </c>
+      <c r="M9">
+        <v>8.8413299992680494E-2</v>
+      </c>
+      <c r="N9">
+        <v>2.5553000159561599E-3</v>
+      </c>
+      <c r="O9">
+        <v>2.3038999643176699E-3</v>
+      </c>
+      <c r="P9">
+        <v>1.2009000056423199E-3</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C10">
         <v>1.0700019999999999</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="D10">
+        <v>0.82999467849731401</v>
+      </c>
+      <c r="E10">
+        <v>1.2199979999999999</v>
+      </c>
+      <c r="F10">
+        <v>1.2100029999999999</v>
+      </c>
+      <c r="G10">
+        <v>1.1800029999999999</v>
+      </c>
+      <c r="H10">
+        <v>1.0500021744519401</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K10">
-        <v>3.3216499956324697E-2</v>
+        <v>6.1755200033076101E-2</v>
+      </c>
+      <c r="L10">
+        <v>3.3992100041359601E-2</v>
+      </c>
+      <c r="M10">
+        <v>9.3017700011841897E-2</v>
+      </c>
+      <c r="N10">
+        <v>1.4831000007688999E-3</v>
+      </c>
+      <c r="O10">
+        <v>3.6075999960303298E-3</v>
+      </c>
+      <c r="P10">
+        <v>1.5024999738670801E-3</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>1.0500020000000001</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="J11" s="2" t="s">
+      <c r="D11" s="2">
+        <v>0.72999973781406802</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.2100029999999999</v>
+      </c>
+      <c r="F11">
+        <v>1.6699949999999999</v>
+      </c>
+      <c r="G11">
+        <v>1.2000029999999999</v>
+      </c>
+      <c r="H11">
+        <v>1.1899974197149199</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="3">
-        <v>3.4716999973170397E-2</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="K11" s="2">
+        <v>6.4162499969825093E-2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3.68433999828994E-2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>9.1373200004454702E-2</v>
+      </c>
+      <c r="N11">
+        <v>2.6978999958373602E-3</v>
+      </c>
+      <c r="O11">
+        <v>2.3100000107660799E-3</v>
+      </c>
+      <c r="P11">
+        <v>1.24070001766085E-3</v>
+      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C12">
         <v>1.84999</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="D12">
+        <v>3.78999975509941</v>
+      </c>
+      <c r="E12">
+        <v>0.95000099999999998</v>
+      </c>
+      <c r="F12">
+        <v>1.3399989999999999</v>
+      </c>
+      <c r="G12">
+        <v>1.0200020000000001</v>
+      </c>
+      <c r="H12">
+        <v>1.21000339277088</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K12">
-        <v>3.34590999991633E-2</v>
+        <v>6.19763999711722E-2</v>
+      </c>
+      <c r="L12">
+        <v>3.5536499985028003E-2</v>
+      </c>
+      <c r="M12">
+        <v>8.9436999987810795E-2</v>
+      </c>
+      <c r="N12">
+        <v>2.1151999826542998E-3</v>
+      </c>
+      <c r="O12">
+        <v>3.59779997961595E-3</v>
+      </c>
+      <c r="P12">
+        <v>1.0385999921709299E-3</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C13">
         <v>1.0400020000000001</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="D13">
+        <v>0.85000065155327298</v>
+      </c>
+      <c r="E13">
+        <v>0.87000100000000002</v>
+      </c>
+      <c r="F13">
+        <v>1.379999</v>
+      </c>
+      <c r="G13">
+        <v>1.8100020000000001</v>
+      </c>
+      <c r="H13">
+        <v>1.7100013792514801</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K13">
-        <v>4.0326900023501297E-2</v>
+        <v>6.2809900031425003E-2</v>
+      </c>
+      <c r="L13">
+        <v>4.1054299974348299E-2</v>
+      </c>
+      <c r="M13">
+        <v>8.3711999992374303E-2</v>
+      </c>
+      <c r="N13">
+        <v>1.50489999214187E-3</v>
+      </c>
+      <c r="O13">
+        <v>2.64419999439269E-3</v>
+      </c>
+      <c r="P13">
+        <v>1.0575999622233199E-3</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C14">
         <v>0.91000099999999995</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="D14">
+        <v>0.71000540629029196</v>
+      </c>
+      <c r="E14">
+        <v>1.459999</v>
+      </c>
+      <c r="F14">
+        <v>1.1499969999999999</v>
+      </c>
+      <c r="G14">
+        <v>1.7699959999999999</v>
+      </c>
+      <c r="H14">
+        <v>1.51999993249773</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K14">
-        <v>3.3037300046999001E-2</v>
+        <v>6.4545199973508702E-2</v>
+      </c>
+      <c r="L14">
+        <v>3.6359900026582098E-2</v>
+      </c>
+      <c r="M14">
+        <v>8.3369400002993602E-2</v>
+      </c>
+      <c r="N14">
+        <v>2.2960000205785001E-3</v>
+      </c>
+      <c r="O14">
+        <v>2.3476000060327299E-3</v>
+      </c>
+      <c r="P14">
+        <v>1.0163999977521501E-3</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C15">
         <v>1.06999</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="D15">
+        <v>0.80000027082860403</v>
+      </c>
+      <c r="E15">
+        <v>0.92000099999999996</v>
+      </c>
+      <c r="F15">
+        <v>2.089998</v>
+      </c>
+      <c r="G15">
+        <v>1.1800029999999999</v>
+      </c>
+      <c r="H15">
+        <v>1.5300000086426699</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K15">
-        <v>3.2226499984972103E-2</v>
+        <v>6.0977299988735398E-2</v>
+      </c>
+      <c r="L15">
+        <v>3.6751999985426602E-2</v>
+      </c>
+      <c r="M15">
+        <v>8.7549899995792602E-2</v>
+      </c>
+      <c r="N15">
+        <v>2.0873000030405802E-3</v>
+      </c>
+      <c r="O15">
+        <v>3.8686000043526201E-3</v>
+      </c>
+      <c r="P15">
+        <v>1.1782000074162999E-3</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C16">
         <v>0.99000100000000002</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="D16">
+        <v>1.02999620139598</v>
+      </c>
+      <c r="E16">
+        <v>0.93000099999999997</v>
+      </c>
+      <c r="F16">
+        <v>1.3900049999999999</v>
+      </c>
+      <c r="G16">
+        <v>1.2099979999999999</v>
+      </c>
+      <c r="H16">
+        <v>1.25999795272946</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K16">
-        <v>3.3075399987865198E-2</v>
+        <v>6.0019899974577101E-2</v>
+      </c>
+      <c r="L16">
+        <v>3.9766500005498501E-2</v>
+      </c>
+      <c r="M16">
+        <v>8.8287399965338395E-2</v>
+      </c>
+      <c r="N16">
+        <v>1.5463000163435899E-3</v>
+      </c>
+      <c r="O16">
+        <v>2.29869998292997E-3</v>
+      </c>
+      <c r="P16">
+        <v>1.3021000195294599E-3</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C17">
         <v>1.0500020000000001</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="D17">
+        <v>0.95999566838145201</v>
+      </c>
+      <c r="E17">
+        <v>0.92000099999999996</v>
+      </c>
+      <c r="F17">
+        <v>1.3600049999999999</v>
+      </c>
+      <c r="G17">
+        <v>1.8400019999999999</v>
+      </c>
+      <c r="H17">
+        <v>1.48999970406293</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K17">
-        <v>3.4407400002237402E-2</v>
+        <v>6.1105600034352302E-2</v>
+      </c>
+      <c r="L17">
+        <v>3.6774000036530197E-2</v>
+      </c>
+      <c r="M17">
+        <v>8.63946999888867E-2</v>
+      </c>
+      <c r="N17">
+        <v>1.50420004501938E-3</v>
+      </c>
+      <c r="O17">
+        <v>3.9759000064805098E-3</v>
+      </c>
+      <c r="P17">
+        <v>1.4737000456079799E-3</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C18">
         <v>0.93000099999999997</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="D18">
+        <v>0.99999597296118703</v>
+      </c>
+      <c r="E18">
+        <v>1.7200009999999999</v>
+      </c>
+      <c r="F18">
+        <v>1.350004</v>
+      </c>
+      <c r="G18">
+        <v>1.7699959999999999</v>
+      </c>
+      <c r="H18">
+        <v>1.6199948731809799</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K18">
-        <v>3.2712799962609999E-2</v>
+        <v>6.1832500039599801E-2</v>
+      </c>
+      <c r="L18">
+        <v>3.8718099996913197E-2</v>
+      </c>
+      <c r="M18">
+        <v>8.6263499979395405E-2</v>
+      </c>
+      <c r="N18">
+        <v>2.9637999832630101E-3</v>
+      </c>
+      <c r="O18">
+        <v>2.8458999586291598E-3</v>
+      </c>
+      <c r="P18">
+        <v>1.02429999969899E-3</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C19">
         <f>AVERAGE(C4:C18)</f>
         <v>1.05866584</v>
       </c>
-      <c r="D19" t="e">
+      <c r="D19">
         <f>AVERAGE(D4:D18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" t="e">
-        <f t="shared" ref="E19:H19" si="0">AVERAGE(E4:E18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" t="e">
+        <v>1.2359997102369831</v>
+      </c>
+      <c r="E19">
+        <f>AVERAGE(E4:E18)</f>
+        <v>1.1400007338666667</v>
+      </c>
+      <c r="F19">
         <f>AVERAGE(F4:F18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="2" t="s">
+        <v>1.5053334666666667</v>
+      </c>
+      <c r="G19">
+        <f>AVERAGE(G4:G18)</f>
+        <v>1.4313333333333331</v>
+      </c>
+      <c r="H19">
+        <f>AVERAGE(H4:H18)</f>
+        <v>1.4733332985391161</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K19">
         <f>AVERAGE(K4:K18)</f>
-        <v>3.4074833325576002E-2</v>
-      </c>
-      <c r="L19" t="e">
+        <v>6.2495086660298162E-2</v>
+      </c>
+      <c r="L19">
         <f>AVERAGE(L4:L18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" t="e">
-        <f t="shared" ref="M19" si="1">AVERAGE(M4:M18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" t="e">
+        <v>3.8658006663899819E-2</v>
+      </c>
+      <c r="M19">
+        <f>AVERAGE(M4:M18)</f>
+        <v>8.6378339988489927E-2</v>
+      </c>
+      <c r="N19">
         <f>AVERAGE(N4:N18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" t="e">
-        <f t="shared" ref="O19:P19" si="2">AVERAGE(O4:O18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P19" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.0234933355823123E-3</v>
+      </c>
+      <c r="O19">
+        <f>AVERAGE(O4:O18)</f>
+        <v>2.9342599911615199E-3</v>
+      </c>
+      <c r="P19">
+        <f>AVERAGE(P4:P18)</f>
+        <v>1.1681466673811225E-3</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="D20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C21" s="5"/>
+      <c r="C21" s="3"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
@@ -890,6 +4208,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
@@ -915,154 +4234,377 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C24">
         <v>3.5558737000101202</v>
       </c>
+      <c r="D24">
+        <v>4.6334233999999999</v>
+      </c>
+      <c r="E24">
+        <v>7.5385678000166001</v>
+      </c>
+      <c r="F24">
+        <v>2.2030799998901701E-2</v>
+      </c>
+      <c r="G24">
+        <v>3.4264999965671401E-2</v>
+      </c>
+      <c r="H24">
+        <v>1.36222000000998E-2</v>
+      </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C25">
         <v>3.5857949999626699</v>
       </c>
+      <c r="D25">
+        <v>4.2745734000000004</v>
+      </c>
+      <c r="E25">
+        <v>7.6035250999848296</v>
+      </c>
+      <c r="F25">
+        <v>2.5642099964898E-2</v>
+      </c>
+      <c r="G25">
+        <v>4.0374200034420903E-2</v>
+      </c>
+      <c r="H25">
+        <v>1.5276599966455201E-2</v>
+      </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C26">
         <v>3.6907640999997899</v>
       </c>
+      <c r="D26">
+        <v>4.63397470000199</v>
+      </c>
+      <c r="E26">
+        <v>7.5758535999921097</v>
+      </c>
+      <c r="F26">
+        <v>2.6075400004629001E-2</v>
+      </c>
+      <c r="G26">
+        <v>4.7215500031597898E-2</v>
+      </c>
+      <c r="H26">
+        <v>1.4712500036694101E-2</v>
+      </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C27">
         <v>3.7333265999914098</v>
       </c>
+      <c r="D27">
+        <v>4.6379831000231198</v>
+      </c>
+      <c r="E27">
+        <v>7.7603360000066397</v>
+      </c>
+      <c r="F27">
+        <v>2.5546099990606301E-2</v>
+      </c>
+      <c r="G27">
+        <v>4.2967699992004699E-2</v>
+      </c>
+      <c r="H27">
+        <v>1.56467999913729E-2</v>
+      </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C28">
         <v>3.6413443000055801</v>
       </c>
+      <c r="D28">
+        <v>4.6518512999755304</v>
+      </c>
+      <c r="E28">
+        <v>7.6289252000278696</v>
+      </c>
+      <c r="F28">
+        <v>2.6503600005525998E-2</v>
+      </c>
+      <c r="G28">
+        <v>4.21280000009574E-2</v>
+      </c>
+      <c r="H28">
+        <v>1.9650599977467199E-2</v>
+      </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C29">
         <v>3.6359979000408198</v>
       </c>
+      <c r="D29">
+        <v>4.6524933000328001</v>
+      </c>
+      <c r="E29">
+        <v>7.7305097999633201</v>
+      </c>
+      <c r="F29">
+        <v>2.51523000188171E-2</v>
+      </c>
+      <c r="G29">
+        <v>4.14028999512083E-2</v>
+      </c>
+      <c r="H29">
+        <v>2.0322900032624599E-2</v>
+      </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C30">
         <v>3.6565957999555301</v>
       </c>
+      <c r="D30">
+        <v>4.72599259996786</v>
+      </c>
+      <c r="E30">
+        <v>7.5629831000114702</v>
+      </c>
+      <c r="F30">
+        <v>2.5534699962008699E-2</v>
+      </c>
+      <c r="G30">
+        <v>4.3936499976553002E-2</v>
+      </c>
+      <c r="H30">
+        <v>1.9897299993317501E-2</v>
+      </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>3.5369630999630299</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="D31" s="2">
+        <v>4.6451306000235402</v>
+      </c>
+      <c r="E31" s="2">
+        <v>7.5974307999713302</v>
+      </c>
+      <c r="F31">
+        <v>2.49811999965459E-2</v>
+      </c>
+      <c r="G31">
+        <v>4.7450900019612101E-2</v>
+      </c>
+      <c r="H31">
+        <v>2.0944999996572702E-2</v>
+      </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C32">
         <v>3.5786460000090301</v>
       </c>
+      <c r="D32">
+        <v>4.6608160999603498</v>
+      </c>
+      <c r="E32">
+        <v>7.5496101999888197</v>
+      </c>
+      <c r="F32">
+        <v>2.65866999980062E-2</v>
+      </c>
+      <c r="G32">
+        <v>5.9546599979512303E-2</v>
+      </c>
+      <c r="H32">
+        <v>1.7374799994286101E-2</v>
+      </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C33">
         <v>3.5345999000128301</v>
       </c>
+      <c r="D33">
+        <v>4.66085109999403</v>
+      </c>
+      <c r="E33">
+        <v>7.5328217999776799</v>
+      </c>
+      <c r="F33">
+        <v>2.5875099992845201E-2</v>
+      </c>
+      <c r="G33">
+        <v>5.3511500009335501E-2</v>
+      </c>
+      <c r="H33">
+        <v>1.7765199998393599E-2</v>
+      </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C34">
         <v>3.5232586000347501</v>
       </c>
+      <c r="D34">
+        <v>4.6333718000096198</v>
+      </c>
+      <c r="E34">
+        <v>7.5456768000149097</v>
+      </c>
+      <c r="F34">
+        <v>2.59432999882847E-2</v>
+      </c>
+      <c r="G34">
+        <v>4.5518100028857499E-2</v>
+      </c>
+      <c r="H34">
+        <v>1.8313699983991599E-2</v>
+      </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C35">
         <v>3.5870397999533399</v>
       </c>
+      <c r="D35">
+        <v>4.6528905999730297</v>
+      </c>
+      <c r="E35">
+        <v>7.5779960000072597</v>
+      </c>
+      <c r="F35">
+        <v>2.5282799964770598E-2</v>
+      </c>
+      <c r="G35">
+        <v>4.4979700003750601E-2</v>
+      </c>
+      <c r="H35">
+        <v>1.7626400047447501E-2</v>
+      </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C36">
         <v>3.5964906000299299</v>
       </c>
+      <c r="D36">
+        <v>4.6663512000232004</v>
+      </c>
+      <c r="E36">
+        <v>7.5472415999975002</v>
+      </c>
+      <c r="F36">
+        <v>2.6353900029789601E-2</v>
+      </c>
+      <c r="G36">
+        <v>4.1742600034922299E-2</v>
+      </c>
+      <c r="H36">
+        <v>1.7768099962268E-2</v>
+      </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C37">
         <v>3.5905539999948801</v>
       </c>
+      <c r="D37">
+        <v>4.6909765999880602</v>
+      </c>
+      <c r="E37">
+        <v>7.5853077999781799</v>
+      </c>
+      <c r="F37">
+        <v>3.0159300018567502E-2</v>
+      </c>
+      <c r="G37">
+        <v>4.2158399999607299E-2</v>
+      </c>
+      <c r="H37">
+        <v>1.7779799993149902E-2</v>
+      </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C38">
         <v>3.5899874999886299</v>
       </c>
+      <c r="D38">
+        <v>4.6615240999963099</v>
+      </c>
+      <c r="E38">
+        <v>7.5121562000131199</v>
+      </c>
+      <c r="F38">
+        <v>2.5317799998447299E-2</v>
+      </c>
+      <c r="G38">
+        <v>4.1004200000315898E-2</v>
+      </c>
+      <c r="H38">
+        <v>2.1075999946333399E-2</v>
+      </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C39">
         <f>AVERAGE(C24:C38)</f>
         <v>3.6024824599968226</v>
       </c>
-      <c r="D39" t="e">
+      <c r="D39">
         <f>AVERAGE(D24:D38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E39" t="e">
-        <f t="shared" ref="E39" si="3">AVERAGE(E24:E38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F39" t="e">
+        <v>4.63214692666463</v>
+      </c>
+      <c r="E39">
+        <f>AVERAGE(E24:E38)</f>
+        <v>7.5899294533301109</v>
+      </c>
+      <c r="F39">
         <f>AVERAGE(F24:F38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G39" t="e">
-        <f t="shared" ref="G39" si="4">AVERAGE(G24:G38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" t="e">
-        <f t="shared" ref="H39" si="5">AVERAGE(H24:H38)</f>
-        <v>#DIV/0!</v>
+        <v>2.5799006662176254E-2</v>
+      </c>
+      <c r="G39">
+        <f>AVERAGE(G24:G38)</f>
+        <v>4.4546786668555133E-2</v>
+      </c>
+      <c r="H39">
+        <f>AVERAGE(H24:H38)</f>
+        <v>1.7851859994698276E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1072,6 +4614,11 @@
     <mergeCell ref="J2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J23" xr:uid="{21644CB8-010F-46A1-A4A0-7542C90D3FBB}">
+      <formula1>$I$20:$I$22</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="3">
@@ -1080,4 +4627,19 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E0DF91-2854-4FDE-9869-8F94574E7687}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="90" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>